--- a/Tabel-tabel_1.xlsx
+++ b/Tabel-tabel_1.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/19cb2d5a76614bf7/2. Kuliah/10. Tugas Akhir/Semester 2/Basis Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_3F64E4B0BF0792AB823928E41E8328CEA59576E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BC890A4-A6D2-4ED1-88DE-2D0105B938D3}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_CFEAE09CD0B3979A363828E41E8328CEA5957751" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{430CFAED-38BD-4E3A-B92F-441C9281A76C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="135" yWindow="255" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabel - Tabel" sheetId="1" r:id="rId1"/>
     <sheet name="New Normalisasi" sheetId="2" r:id="rId2"/>
-    <sheet name="Normalisasi" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="Normalisasi" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2156" uniqueCount="247">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -772,7 +773,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -869,8 +870,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -881,6 +889,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -974,7 +988,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1086,13 +1100,31 @@
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1101,22 +1133,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1128,13 +1160,13 @@
     <xf numFmtId="14" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1447,19 +1479,19 @@
       </c>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="38"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="38"/>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="50"/>
+      <c r="AA2" s="50"/>
+      <c r="AB2" s="50"/>
+      <c r="AC2" s="50"/>
+      <c r="AD2" s="50"/>
+      <c r="AE2" s="50"/>
+      <c r="AF2" s="50"/>
+      <c r="AG2" s="50"/>
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
@@ -1468,31 +1500,31 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="41"/>
-      <c r="G3" s="39" t="s">
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
+      <c r="G3" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="41"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="47"/>
       <c r="L3" s="1"/>
-      <c r="N3" s="42" t="s">
+      <c r="N3" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="41"/>
-      <c r="S3" s="39" t="s">
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="47"/>
+      <c r="S3" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="T3" s="40"/>
-      <c r="U3" s="41"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="47"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
@@ -1557,27 +1589,27 @@
       <c r="U4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W4" s="42" t="s">
+      <c r="W4" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="X4" s="40"/>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="40"/>
-      <c r="AA4" s="40"/>
-      <c r="AB4" s="40"/>
-      <c r="AC4" s="40"/>
-      <c r="AD4" s="40"/>
-      <c r="AE4" s="40"/>
-      <c r="AF4" s="40"/>
-      <c r="AG4" s="40"/>
-      <c r="AH4" s="41"/>
-      <c r="AJ4" s="39" t="s">
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="46"/>
+      <c r="AG4" s="46"/>
+      <c r="AH4" s="47"/>
+      <c r="AJ4" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="AK4" s="40"/>
-      <c r="AL4" s="40"/>
-      <c r="AM4" s="40"/>
-      <c r="AN4" s="41"/>
+      <c r="AK4" s="46"/>
+      <c r="AL4" s="46"/>
+      <c r="AM4" s="46"/>
+      <c r="AN4" s="47"/>
     </row>
     <row r="5" spans="1:40">
       <c r="B5" s="4" t="s">
@@ -44257,8 +44289,8 @@
   </sheetPr>
   <dimension ref="A1:AK1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B132" sqref="B132:E142"/>
+    <sheetView tabSelected="1" topLeftCell="P43" workbookViewId="0">
+      <selection activeCell="V61" sqref="V61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -44268,7 +44300,6 @@
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" style="51" customWidth="1"/>
     <col min="16" max="16" width="19" customWidth="1"/>
     <col min="21" max="21" width="12.85546875" customWidth="1"/>
     <col min="22" max="23" width="18.28515625" customWidth="1"/>
@@ -44476,7 +44507,7 @@
         <v>8545354169</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="V5" s="5" t="s">
         <v>163</v>
@@ -44546,11 +44577,11 @@
       <c r="G6" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="5">
-        <v>8545354869</v>
+      <c r="H6" s="10">
+        <v>8545359645</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="J6" s="10" t="s">
         <v>155</v>
@@ -44562,13 +44593,13 @@
         <v>95</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="N6" s="21">
-        <v>8545357603</v>
+        <v>8545357510</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="P6" s="5" t="s">
         <v>170</v>
@@ -44583,7 +44614,7 @@
         <v>83</v>
       </c>
       <c r="T6" s="5">
-        <v>8545355429</v>
+        <v>8545354169</v>
       </c>
       <c r="U6" s="5" t="s">
         <v>28</v>
@@ -46698,7 +46729,7 @@
         <v>106</v>
       </c>
       <c r="M48" s="5" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="N48" s="20">
         <v>31000</v>
@@ -47159,6 +47190,15 @@
       <c r="X57" s="14"/>
     </row>
     <row r="58" spans="2:26">
+      <c r="B58" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>20</v>
+      </c>
       <c r="G58" s="17" t="s">
         <v>14</v>
       </c>
@@ -47197,6 +47237,15 @@
       <c r="Z58" s="14"/>
     </row>
     <row r="59" spans="2:26">
+      <c r="B59" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D59" s="10">
+        <v>13000</v>
+      </c>
       <c r="G59" s="20" t="s">
         <v>30</v>
       </c>
@@ -47234,6 +47283,15 @@
       <c r="Z59" s="14"/>
     </row>
     <row r="60" spans="2:26">
+      <c r="B60" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D60" s="10">
+        <v>13000</v>
+      </c>
       <c r="G60" s="20" t="s">
         <v>53</v>
       </c>
@@ -47268,6 +47326,15 @@
       <c r="Z60" s="14"/>
     </row>
     <row r="61" spans="2:26">
+      <c r="B61" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D61" s="10">
+        <v>13000</v>
+      </c>
       <c r="G61" s="20" t="s">
         <v>69</v>
       </c>
@@ -47311,6 +47378,15 @@
       <c r="Z61" s="14"/>
     </row>
     <row r="62" spans="2:26">
+      <c r="B62" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D62" s="10">
+        <v>13000</v>
+      </c>
       <c r="G62" s="20" t="s">
         <v>84</v>
       </c>
@@ -47354,6 +47430,15 @@
       <c r="Z62" s="14"/>
     </row>
     <row r="63" spans="2:26">
+      <c r="B63" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D63" s="10">
+        <v>13000</v>
+      </c>
       <c r="G63" s="20" t="s">
         <v>98</v>
       </c>
@@ -47397,6 +47482,15 @@
       <c r="Z63" s="14"/>
     </row>
     <row r="64" spans="2:26">
+      <c r="B64" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D64" s="10">
+        <v>10000</v>
+      </c>
       <c r="G64" s="20" t="s">
         <v>108</v>
       </c>
@@ -47437,6 +47531,15 @@
       <c r="Z64" s="14"/>
     </row>
     <row r="65" spans="2:26">
+      <c r="B65" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D65" s="10">
+        <v>0</v>
+      </c>
       <c r="E65" s="14"/>
       <c r="G65" s="20" t="s">
         <v>115</v>
@@ -47469,15 +47572,6 @@
       <c r="Z65" s="14"/>
     </row>
     <row r="66" spans="2:26">
-      <c r="B66" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C66" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D66" s="20" t="s">
-        <v>20</v>
-      </c>
       <c r="G66" s="20" t="s">
         <v>78</v>
       </c>
@@ -47509,15 +47603,6 @@
       <c r="Z66" s="14"/>
     </row>
     <row r="67" spans="2:26">
-      <c r="B67" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D67" s="10">
-        <v>13000</v>
-      </c>
       <c r="J67" s="14"/>
       <c r="K67" s="14"/>
       <c r="L67" s="20">
@@ -47538,15 +47623,6 @@
       <c r="Z67" s="14"/>
     </row>
     <row r="68" spans="2:26">
-      <c r="B68" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D68" s="10">
-        <v>13000</v>
-      </c>
       <c r="J68" s="14"/>
       <c r="K68" s="14"/>
       <c r="L68" s="20">
@@ -47567,15 +47643,6 @@
       <c r="Z68" s="14"/>
     </row>
     <row r="69" spans="2:26">
-      <c r="B69" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D69" s="10">
-        <v>13000</v>
-      </c>
       <c r="J69" s="14"/>
       <c r="K69" s="14"/>
       <c r="L69" s="20">
@@ -47596,15 +47663,6 @@
       <c r="Z69" s="14"/>
     </row>
     <row r="70" spans="2:26">
-      <c r="B70" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D70" s="10">
-        <v>13000</v>
-      </c>
       <c r="J70" s="14"/>
       <c r="K70" s="14"/>
       <c r="L70" s="14"/>
@@ -47612,15 +47670,6 @@
       <c r="Z70" s="14"/>
     </row>
     <row r="71" spans="2:26">
-      <c r="B71" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="D71" s="10">
-        <v>13000</v>
-      </c>
       <c r="J71" s="14"/>
       <c r="K71" s="14"/>
       <c r="L71" s="14"/>
@@ -47629,15 +47678,6 @@
       <c r="Z71" s="14"/>
     </row>
     <row r="72" spans="2:26">
-      <c r="B72" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="D72" s="10">
-        <v>10000</v>
-      </c>
       <c r="E72" s="14"/>
       <c r="J72" s="14"/>
       <c r="K72" s="14"/>
@@ -47647,15 +47687,6 @@
       <c r="Z72" s="14"/>
     </row>
     <row r="73" spans="2:26">
-      <c r="B73" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="D73" s="10">
-        <v>0</v>
-      </c>
       <c r="E73" s="14"/>
       <c r="J73" s="14"/>
       <c r="K73" s="14"/>
@@ -47859,88 +47890,88 @@
       </c>
     </row>
     <row r="86" spans="2:37">
-      <c r="B86" s="43" t="s">
+      <c r="B86" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="C86" s="43" t="s">
+      <c r="C86" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="D86" s="43">
+      <c r="D86" s="57">
         <v>81234567890</v>
       </c>
-      <c r="E86" s="45" t="s">
+      <c r="E86" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="F86" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="G86" s="45" t="s">
+      <c r="F86" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="G86" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="H86" s="45">
+      <c r="H86" s="53">
         <v>8545359645</v>
       </c>
-      <c r="I86" s="45" t="s">
+      <c r="I86" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="J86" s="45" t="s">
+      <c r="J86" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="K86" s="43">
+      <c r="K86" s="57">
         <v>2800000</v>
       </c>
-      <c r="L86" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="M86" s="46" t="s">
+      <c r="L86" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="M86" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="N86" s="47">
+      <c r="N86" s="58">
         <v>8545357510</v>
       </c>
-      <c r="O86" s="46" t="s">
+      <c r="O86" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="P86" s="46" t="s">
+      <c r="P86" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="Q86" s="46">
+      <c r="Q86" s="51">
         <v>2600000</v>
       </c>
-      <c r="R86" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="S86" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="T86" s="46">
-        <v>8545354169</v>
-      </c>
-      <c r="U86" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="V86" s="46" t="s">
+      <c r="R86" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="S86" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="T86" s="51">
+        <v>8545355429</v>
+      </c>
+      <c r="U86" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="V86" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="W86" s="49">
+      <c r="W86" s="55">
         <v>2400000</v>
       </c>
-      <c r="X86" s="50">
+      <c r="X86" s="56">
         <v>45413</v>
       </c>
-      <c r="Y86" s="50">
+      <c r="Y86" s="56">
         <v>45417</v>
       </c>
-      <c r="Z86" s="43" t="s">
+      <c r="Z86" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="AA86" s="45" t="s">
+      <c r="AA86" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="AB86" s="45">
+      <c r="AB86" s="53">
         <v>13000</v>
       </c>
-      <c r="AC86" s="43" t="s">
+      <c r="AC86" s="57" t="s">
         <v>57</v>
       </c>
       <c r="AD86" s="20" t="s">
@@ -47961,42 +47992,42 @@
       <c r="AI86" s="20">
         <v>12000</v>
       </c>
-      <c r="AJ86" s="45" t="s">
+      <c r="AJ86" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="AK86" s="48" t="s">
+      <c r="AK86" s="54" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="87" spans="2:37">
-      <c r="B87" s="44"/>
-      <c r="C87" s="44"/>
-      <c r="D87" s="44"/>
-      <c r="E87" s="44"/>
-      <c r="F87" s="44"/>
-      <c r="G87" s="44"/>
-      <c r="H87" s="44"/>
-      <c r="I87" s="44"/>
-      <c r="J87" s="44"/>
+      <c r="B87" s="52"/>
+      <c r="C87" s="52"/>
+      <c r="D87" s="52"/>
+      <c r="E87" s="52"/>
+      <c r="F87" s="52"/>
+      <c r="G87" s="52"/>
+      <c r="H87" s="52"/>
+      <c r="I87" s="52"/>
+      <c r="J87" s="52"/>
       <c r="K87" s="52"/>
-      <c r="L87" s="44"/>
-      <c r="M87" s="44"/>
-      <c r="N87" s="44"/>
-      <c r="O87" s="44"/>
-      <c r="P87" s="44"/>
-      <c r="Q87" s="44"/>
-      <c r="R87" s="44"/>
-      <c r="S87" s="44"/>
-      <c r="T87" s="44"/>
-      <c r="U87" s="44"/>
-      <c r="V87" s="44"/>
-      <c r="W87" s="44"/>
-      <c r="X87" s="44"/>
-      <c r="Y87" s="44"/>
-      <c r="Z87" s="44"/>
-      <c r="AA87" s="44"/>
-      <c r="AB87" s="44"/>
-      <c r="AC87" s="44"/>
+      <c r="L87" s="52"/>
+      <c r="M87" s="52"/>
+      <c r="N87" s="52"/>
+      <c r="O87" s="52"/>
+      <c r="P87" s="52"/>
+      <c r="Q87" s="52"/>
+      <c r="R87" s="52"/>
+      <c r="S87" s="52"/>
+      <c r="T87" s="52"/>
+      <c r="U87" s="52"/>
+      <c r="V87" s="52"/>
+      <c r="W87" s="52"/>
+      <c r="X87" s="52"/>
+      <c r="Y87" s="52"/>
+      <c r="Z87" s="52"/>
+      <c r="AA87" s="52"/>
+      <c r="AB87" s="52"/>
+      <c r="AC87" s="52"/>
       <c r="AD87" s="20" t="s">
         <v>78</v>
       </c>
@@ -48015,8 +48046,8 @@
       <c r="AI87" s="20">
         <v>70000</v>
       </c>
-      <c r="AJ87" s="44"/>
-      <c r="AK87" s="44"/>
+      <c r="AJ87" s="52"/>
+      <c r="AK87" s="52"/>
     </row>
     <row r="88" spans="2:37">
       <c r="B88" s="20" t="s">
@@ -48032,7 +48063,7 @@
         <v>49</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="G88" s="10" t="s">
         <v>51</v>
@@ -48050,7 +48081,7 @@
         <v>2800000</v>
       </c>
       <c r="L88" s="5" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="M88" s="5" t="s">
         <v>107</v>
@@ -48068,7 +48099,7 @@
         <v>2600000</v>
       </c>
       <c r="R88" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="S88" s="5" t="s">
         <v>67</v>
@@ -48142,7 +48173,7 @@
         <v>65</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="G89" s="10" t="s">
         <v>27</v>
@@ -48160,7 +48191,7 @@
         <v>2800000</v>
       </c>
       <c r="L89" s="5" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="M89" s="5" t="s">
         <v>96</v>
@@ -48252,7 +48283,7 @@
         <v>81</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="G90" s="10" t="s">
         <v>51</v>
@@ -48270,7 +48301,7 @@
         <v>2800000</v>
       </c>
       <c r="L90" s="5" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="M90" s="5" t="s">
         <v>107</v>
@@ -48288,7 +48319,7 @@
         <v>2600000</v>
       </c>
       <c r="R90" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="S90" s="5" t="s">
         <v>67</v>
@@ -48362,7 +48393,7 @@
         <v>94</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="G91" s="10" t="s">
         <v>51</v>
@@ -48380,7 +48411,7 @@
         <v>2800000</v>
       </c>
       <c r="L91" s="5" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="M91" s="5" t="s">
         <v>107</v>
@@ -48397,12 +48428,24 @@
       <c r="Q91" s="5">
         <v>2600000</v>
       </c>
-      <c r="R91" s="5"/>
-      <c r="S91" s="5"/>
-      <c r="T91" s="5"/>
-      <c r="U91" s="5"/>
-      <c r="V91" s="5"/>
-      <c r="W91" s="11"/>
+      <c r="R91" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="S91" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="T91" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="U91" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="V91" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="W91" s="5" t="s">
+        <v>191</v>
+      </c>
       <c r="X91" s="22">
         <v>45418</v>
       </c>
@@ -48460,7 +48503,7 @@
         <v>105</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="G92" s="10" t="s">
         <v>27</v>
@@ -48478,7 +48521,7 @@
         <v>2800000</v>
       </c>
       <c r="L92" s="5" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="M92" s="5" t="s">
         <v>96</v>
@@ -48496,7 +48539,7 @@
         <v>2600000</v>
       </c>
       <c r="R92" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="S92" s="5" t="s">
         <v>67</v>
@@ -48570,7 +48613,7 @@
         <v>114</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="G93" s="10" t="s">
         <v>27</v>
@@ -48588,7 +48631,7 @@
         <v>2800000</v>
       </c>
       <c r="L93" s="5" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="M93" s="5" t="s">
         <v>107</v>
@@ -48606,7 +48649,7 @@
         <v>2600000</v>
       </c>
       <c r="R93" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="S93" s="5" t="s">
         <v>67</v>
@@ -48680,7 +48723,7 @@
         <v>122</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="G94" s="10" t="s">
         <v>27</v>
@@ -48698,7 +48741,7 @@
         <v>2800000</v>
       </c>
       <c r="L94" s="5" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="M94" s="5" t="s">
         <v>96</v>
@@ -48790,7 +48833,7 @@
         <v>128</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="G95" s="10" t="s">
         <v>27</v>
@@ -48808,7 +48851,7 @@
         <v>2800000</v>
       </c>
       <c r="L95" s="5" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="M95" s="5" t="s">
         <v>96</v>
@@ -48900,7 +48943,7 @@
         <v>133</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="G96" s="10" t="s">
         <v>51</v>
@@ -48918,7 +48961,7 @@
         <v>2800000</v>
       </c>
       <c r="L96" s="5" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="M96" s="5" t="s">
         <v>107</v>
@@ -48936,7 +48979,7 @@
         <v>2600000</v>
       </c>
       <c r="R96" s="5" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="S96" s="5" t="s">
         <v>83</v>
@@ -49064,7 +49107,7 @@
         <v>95</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="F107" s="20">
         <v>1</v>
@@ -49102,10 +49145,10 @@
         <v>23</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="E108" s="5" t="s">
         <v>82</v>
@@ -49892,7 +49935,7 @@
       <c r="J129" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="K129" s="53" t="s">
+      <c r="K129" s="19" t="s">
         <v>197</v>
       </c>
       <c r="M129" s="8" t="s">
@@ -57085,6 +57128,26 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="G86:G87"/>
+    <mergeCell ref="H86:H87"/>
+    <mergeCell ref="I86:I87"/>
+    <mergeCell ref="J86:J87"/>
+    <mergeCell ref="K86:K87"/>
+    <mergeCell ref="L86:L87"/>
+    <mergeCell ref="M86:M87"/>
+    <mergeCell ref="N86:N87"/>
+    <mergeCell ref="O86:O87"/>
+    <mergeCell ref="P86:P87"/>
+    <mergeCell ref="Q86:Q87"/>
+    <mergeCell ref="R86:R87"/>
+    <mergeCell ref="S86:S87"/>
+    <mergeCell ref="T86:T87"/>
+    <mergeCell ref="U86:U87"/>
     <mergeCell ref="V86:V87"/>
     <mergeCell ref="AJ86:AJ87"/>
     <mergeCell ref="AK86:AK87"/>
@@ -57095,38 +57158,2775 @@
     <mergeCell ref="AA86:AA87"/>
     <mergeCell ref="AB86:AB87"/>
     <mergeCell ref="AC86:AC87"/>
-    <mergeCell ref="Q86:Q87"/>
-    <mergeCell ref="R86:R87"/>
-    <mergeCell ref="S86:S87"/>
-    <mergeCell ref="T86:T87"/>
-    <mergeCell ref="U86:U87"/>
-    <mergeCell ref="L86:L87"/>
-    <mergeCell ref="M86:M87"/>
-    <mergeCell ref="N86:N87"/>
-    <mergeCell ref="O86:O87"/>
-    <mergeCell ref="P86:P87"/>
-    <mergeCell ref="G86:G87"/>
-    <mergeCell ref="H86:H87"/>
-    <mergeCell ref="I86:I87"/>
-    <mergeCell ref="J86:J87"/>
-    <mergeCell ref="K86:K87"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="F86:F87"/>
   </mergeCells>
   <printOptions horizontalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd" r:id="rId1"/>
+  <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9D34E5-1D0F-4A54-BF72-F2185C58B699}">
+  <dimension ref="B2:AK76"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41:O76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" customWidth="1"/>
+    <col min="15" max="15" width="18.5703125" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" customWidth="1"/>
+    <col min="20" max="20" width="15.42578125" customWidth="1"/>
+    <col min="21" max="21" width="13.7109375" customWidth="1"/>
+    <col min="24" max="24" width="11.140625" customWidth="1"/>
+    <col min="25" max="25" width="11.7109375" customWidth="1"/>
+    <col min="26" max="26" width="12.42578125" customWidth="1"/>
+    <col min="27" max="27" width="14" customWidth="1"/>
+    <col min="29" max="29" width="16" customWidth="1"/>
+    <col min="30" max="30" width="10.42578125" customWidth="1"/>
+    <col min="31" max="31" width="21.7109375" customWidth="1"/>
+    <col min="32" max="32" width="15.140625" customWidth="1"/>
+    <col min="33" max="33" width="13.5703125" customWidth="1"/>
+    <col min="34" max="34" width="13.140625" customWidth="1"/>
+    <col min="35" max="35" width="10.7109375" customWidth="1"/>
+    <col min="36" max="36" width="13.140625" customWidth="1"/>
+    <col min="37" max="37" width="20" style="37" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13">
+      <c r="B2" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="38" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="57">
+        <v>81234567890</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="53">
+        <v>8545359645</v>
+      </c>
+      <c r="I3" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="53" t="s">
+        <v>155</v>
+      </c>
+      <c r="K3" s="57">
+        <v>2800000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="20">
+        <v>81234567891</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="10">
+        <v>8545359645</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="K5" s="20">
+        <v>2800000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="20">
+        <v>81234567891</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="5">
+        <v>8545354869</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="K6" s="20">
+        <v>2800000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="20">
+        <v>81234567893</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="10">
+        <v>8545359645</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="K7" s="20">
+        <v>2800000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="20">
+        <v>81234567894</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="10">
+        <v>8545359645</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="K8" s="20">
+        <v>2800000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="20">
+        <v>81234567895</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="5">
+        <v>8545354869</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="K9" s="20">
+        <v>2800000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="20">
+        <v>81234567896</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="5">
+        <v>8545354869</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="K10" s="20">
+        <v>2800000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="20">
+        <v>81234567897</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="5">
+        <v>8545354869</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="K11" s="20">
+        <v>2800000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="20">
+        <v>81234567898</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="5">
+        <v>8545354869</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="K12" s="20">
+        <v>2800000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="20">
+        <v>81234567899</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="10">
+        <v>8545359645</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="K13" s="20">
+        <v>2800000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="H14" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="M14" s="38" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="58">
+        <v>8545357510</v>
+      </c>
+      <c r="E15" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="G15" s="51">
+        <v>2600000</v>
+      </c>
+      <c r="H15" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="J15" s="51">
+        <v>8545355429</v>
+      </c>
+      <c r="K15" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="M15" s="55">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="B17" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="21">
+        <v>8545357603</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G17" s="5">
+        <v>2600000</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J17" s="5">
+        <v>8545354169</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="M17" s="11">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="B18" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="21">
+        <v>8545357510</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G18" s="5">
+        <v>2600000</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15">
+      <c r="B19" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="21">
+        <v>8545357603</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G19" s="5">
+        <v>2600000</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J19" s="5">
+        <v>8545354169</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="M19" s="11">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="B20" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="21">
+        <v>8545357603</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G20" s="5">
+        <v>2600000</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="B21" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="21">
+        <v>8545357510</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G21" s="5">
+        <v>2600000</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J21" s="5">
+        <v>8545354169</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="M21" s="11">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="B22" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="21">
+        <v>8545357603</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G22" s="5">
+        <v>2600000</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J22" s="5">
+        <v>8545354169</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="M22" s="11">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="B23" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="21">
+        <v>8545357510</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G23" s="5">
+        <v>2600000</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="B24" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="21">
+        <v>8545357510</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G24" s="5">
+        <v>2600000</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="B25" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="21">
+        <v>8545357603</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G25" s="5">
+        <v>2600000</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J25" s="5">
+        <v>8545355429</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="M25" s="11">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15">
+      <c r="B26" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="M26" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="N26" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="O26" s="40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15">
+      <c r="B27" s="56">
+        <v>45413</v>
+      </c>
+      <c r="C27" s="56">
+        <v>45417</v>
+      </c>
+      <c r="D27" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="53">
+        <v>13000</v>
+      </c>
+      <c r="G27" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J27" s="10">
+        <v>3</v>
+      </c>
+      <c r="K27" s="20">
+        <v>6000</v>
+      </c>
+      <c r="L27" s="20">
+        <v>2</v>
+      </c>
+      <c r="M27" s="20">
+        <v>12000</v>
+      </c>
+      <c r="N27" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="O27" s="53" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15">
+      <c r="B28" s="52"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="J28" s="10">
+        <v>4</v>
+      </c>
+      <c r="K28" s="20">
+        <v>35000</v>
+      </c>
+      <c r="L28" s="20">
+        <v>2</v>
+      </c>
+      <c r="M28" s="20">
+        <v>70000</v>
+      </c>
+      <c r="N28" s="52"/>
+      <c r="O28" s="59"/>
+    </row>
+    <row r="29" spans="2:15">
+      <c r="B29" s="22">
+        <v>45415</v>
+      </c>
+      <c r="C29" s="22">
+        <v>45418</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="10">
+        <v>13000</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="I29" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="J29" s="20">
+        <v>3</v>
+      </c>
+      <c r="K29" s="20">
+        <v>6000</v>
+      </c>
+      <c r="L29" s="20">
+        <v>3</v>
+      </c>
+      <c r="M29" s="20">
+        <v>31000</v>
+      </c>
+      <c r="N29" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="O29" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15">
+      <c r="B30" s="22">
+        <v>45416</v>
+      </c>
+      <c r="C30" s="22">
+        <v>45417</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="F30" s="10">
+        <v>0</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="J30" s="10">
+        <v>1</v>
+      </c>
+      <c r="K30" s="20">
+        <v>11000</v>
+      </c>
+      <c r="L30" s="20">
+        <v>3</v>
+      </c>
+      <c r="M30" s="20">
+        <v>27000</v>
+      </c>
+      <c r="N30" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="O30" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15">
+      <c r="B31" s="22">
+        <v>45417</v>
+      </c>
+      <c r="C31" s="22">
+        <v>45420</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F31" s="10">
+        <v>13000</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="J31" s="10">
+        <v>3</v>
+      </c>
+      <c r="K31" s="20">
+        <v>8000</v>
+      </c>
+      <c r="L31" s="20">
+        <v>4</v>
+      </c>
+      <c r="M31" s="20">
+        <v>45000</v>
+      </c>
+      <c r="N31" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="O31" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15">
+      <c r="B32" s="22">
+        <v>45418</v>
+      </c>
+      <c r="C32" s="22">
+        <v>45421</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="F32" s="10">
+        <v>0</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J32" s="10">
+        <v>3</v>
+      </c>
+      <c r="K32" s="20">
+        <v>13000</v>
+      </c>
+      <c r="L32" s="20">
+        <v>2</v>
+      </c>
+      <c r="M32" s="20">
+        <v>26000</v>
+      </c>
+      <c r="N32" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="O32" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15">
+      <c r="B33" s="22">
+        <v>45419</v>
+      </c>
+      <c r="C33" s="22">
+        <v>45423</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F33" s="10">
+        <v>13000</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="J33" s="10">
+        <v>4</v>
+      </c>
+      <c r="K33" s="20">
+        <v>15000</v>
+      </c>
+      <c r="L33" s="20">
+        <v>2</v>
+      </c>
+      <c r="M33" s="20">
+        <v>43000</v>
+      </c>
+      <c r="N33" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="O33" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15">
+      <c r="B34" s="22">
+        <v>45420</v>
+      </c>
+      <c r="C34" s="22">
+        <v>45423</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F34" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H34" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="J34" s="10">
+        <v>3</v>
+      </c>
+      <c r="K34" s="20">
+        <v>10000</v>
+      </c>
+      <c r="L34" s="20">
+        <v>3</v>
+      </c>
+      <c r="M34" s="20">
+        <v>43000</v>
+      </c>
+      <c r="N34" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="O34" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15">
+      <c r="B35" s="22">
+        <v>45421</v>
+      </c>
+      <c r="C35" s="22">
+        <v>45425</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="F35" s="10">
+        <v>0</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="H35" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="J35" s="10">
+        <v>4</v>
+      </c>
+      <c r="K35" s="20">
+        <v>35000</v>
+      </c>
+      <c r="L35" s="20">
+        <v>2</v>
+      </c>
+      <c r="M35" s="20">
+        <v>70000</v>
+      </c>
+      <c r="N35" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="O35" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15">
+      <c r="B36" s="22">
+        <v>45422</v>
+      </c>
+      <c r="C36" s="22">
+        <v>45423</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="F36" s="10">
+        <v>0</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="H36" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J36" s="10">
+        <v>1</v>
+      </c>
+      <c r="K36" s="20">
+        <v>9000</v>
+      </c>
+      <c r="L36" s="20">
+        <v>3</v>
+      </c>
+      <c r="M36" s="20">
+        <v>27000</v>
+      </c>
+      <c r="N36" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="O36" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15">
+      <c r="B37" s="22">
+        <v>45423</v>
+      </c>
+      <c r="C37" s="22">
+        <v>45424</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="F37" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H37" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="J37" s="10">
+        <v>1</v>
+      </c>
+      <c r="K37" s="20">
+        <v>11000</v>
+      </c>
+      <c r="L37" s="20">
+        <v>4</v>
+      </c>
+      <c r="M37" s="20">
+        <v>54000</v>
+      </c>
+      <c r="N37" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="O37" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" s="42" customFormat="1">
+      <c r="B41" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="G41" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="I41" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="J41" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="K41" s="43" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15">
+      <c r="B42" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="20">
+        <v>81234567890</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H42" s="10">
+        <v>8545359645</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="K42" s="20">
+        <v>2800000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15">
+      <c r="B43" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" s="20">
+        <v>81234567890</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H43" s="10">
+        <v>8545359645</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J43" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="K43" s="20">
+        <v>2800000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15">
+      <c r="B44" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="20">
+        <v>81234567891</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H44" s="10">
+        <v>8545359645</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="K44" s="20">
+        <v>2800000</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15">
+      <c r="B45" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" s="20">
+        <v>81234567891</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" s="5">
+        <v>8545354869</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J45" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="K45" s="20">
+        <v>2800000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15">
+      <c r="B46" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46" s="20">
+        <v>81234567893</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H46" s="10">
+        <v>8545359645</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J46" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="K46" s="20">
+        <v>2800000</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15">
+      <c r="B47" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47" s="20">
+        <v>81234567894</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H47" s="10">
+        <v>8545359645</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J47" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="K47" s="20">
+        <v>2800000</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15">
+      <c r="B48" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D48" s="20">
+        <v>81234567895</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H48" s="5">
+        <v>8545354869</v>
+      </c>
+      <c r="I48" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J48" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="K48" s="20">
+        <v>2800000</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13">
+      <c r="B49" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="D49" s="20">
+        <v>81234567896</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" s="5">
+        <v>8545354869</v>
+      </c>
+      <c r="I49" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J49" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="K49" s="20">
+        <v>2800000</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13">
+      <c r="B50" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D50" s="20">
+        <v>81234567897</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H50" s="5">
+        <v>8545354869</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="K50" s="20">
+        <v>2800000</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13">
+      <c r="B51" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="D51" s="20">
+        <v>81234567898</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H51" s="5">
+        <v>8545354869</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="K51" s="20">
+        <v>2800000</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13">
+      <c r="B52" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D52" s="20">
+        <v>81234567899</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H52" s="10">
+        <v>8545359645</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J52" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="K52" s="20">
+        <v>2800000</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13">
+      <c r="B53" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="H53" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="I53" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="J53" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="K53" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="L53" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="M53" s="43" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13">
+      <c r="B54" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D54" s="21">
+        <v>8545357510</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G54" s="5">
+        <v>2600000</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J54" s="5">
+        <v>8545354169</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L54" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="M54" s="11">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13">
+      <c r="B55" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D55" s="21">
+        <v>8545357510</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G55" s="5">
+        <v>2600000</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J55" s="5">
+        <v>8545354169</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L55" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="M55" s="11">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13">
+      <c r="B56" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D56" s="21">
+        <v>8545357603</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G56" s="5">
+        <v>2600000</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J56" s="5">
+        <v>8545354169</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L56" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="M56" s="11">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13">
+      <c r="B57" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D57" s="21">
+        <v>8545357510</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G57" s="5">
+        <v>2600000</v>
+      </c>
+      <c r="H57" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="I57" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="J57" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="K57" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="L57" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="M57" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13">
+      <c r="B58" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D58" s="21">
+        <v>8545357603</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G58" s="5">
+        <v>2600000</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J58" s="5">
+        <v>8545354169</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L58" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="M58" s="11">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13">
+      <c r="B59" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D59" s="21">
+        <v>8545357603</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G59" s="5">
+        <v>2600000</v>
+      </c>
+      <c r="H59" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="I59" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="J59" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="K59" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="L59" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="M59" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13">
+      <c r="B60" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D60" s="21">
+        <v>8545357510</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G60" s="5">
+        <v>2600000</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J60" s="5">
+        <v>8545354169</v>
+      </c>
+      <c r="K60" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L60" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="M60" s="11">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13">
+      <c r="B61" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D61" s="21">
+        <v>8545357603</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G61" s="5">
+        <v>2600000</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J61" s="5">
+        <v>8545354169</v>
+      </c>
+      <c r="K61" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L61" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="M61" s="11">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13">
+      <c r="B62" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D62" s="21">
+        <v>8545357510</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G62" s="5">
+        <v>2600000</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I62" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="J62" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="K62" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="L62" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="M62" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13">
+      <c r="B63" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D63" s="21">
+        <v>8545357510</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G63" s="5">
+        <v>2600000</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I63" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="J63" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="K63" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="L63" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="M63" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13">
+      <c r="B64" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D64" s="21">
+        <v>8545357603</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G64" s="5">
+        <v>2600000</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J64" s="5">
+        <v>8545355429</v>
+      </c>
+      <c r="K64" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L64" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="M64" s="11">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15">
+      <c r="B65" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C65" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="D65" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="F65" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="G65" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="H65" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I65" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="J65" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="K65" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="L65" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="M65" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="N65" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="O65" s="44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15">
+      <c r="B66" s="22">
+        <v>45413</v>
+      </c>
+      <c r="C66" s="22">
+        <v>45417</v>
+      </c>
+      <c r="D66" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F66" s="10">
+        <v>13000</v>
+      </c>
+      <c r="G66" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H66" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="I66" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J66" s="10">
+        <v>3</v>
+      </c>
+      <c r="K66" s="20">
+        <v>6000</v>
+      </c>
+      <c r="L66" s="20">
+        <v>2</v>
+      </c>
+      <c r="M66" s="20">
+        <v>12000</v>
+      </c>
+      <c r="N66" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="O66" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15">
+      <c r="B67" s="22">
+        <v>45413</v>
+      </c>
+      <c r="C67" s="22">
+        <v>45417</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F67" s="10">
+        <v>13000</v>
+      </c>
+      <c r="G67" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H67" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="I67" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="J67" s="10">
+        <v>4</v>
+      </c>
+      <c r="K67" s="20">
+        <v>35000</v>
+      </c>
+      <c r="L67" s="20">
+        <v>2</v>
+      </c>
+      <c r="M67" s="20">
+        <v>70000</v>
+      </c>
+      <c r="N67" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="O67" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15">
+      <c r="B68" s="22">
+        <v>45415</v>
+      </c>
+      <c r="C68" s="22">
+        <v>45418</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F68" s="10">
+        <v>13000</v>
+      </c>
+      <c r="G68" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H68" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="I68" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="J68" s="20">
+        <v>3</v>
+      </c>
+      <c r="K68" s="20">
+        <v>6000</v>
+      </c>
+      <c r="L68" s="20">
+        <v>3</v>
+      </c>
+      <c r="M68" s="20">
+        <v>31000</v>
+      </c>
+      <c r="N68" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="O68" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15">
+      <c r="B69" s="22">
+        <v>45416</v>
+      </c>
+      <c r="C69" s="22">
+        <v>45417</v>
+      </c>
+      <c r="D69" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="F69" s="10">
+        <v>0</v>
+      </c>
+      <c r="G69" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="H69" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="I69" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="J69" s="10">
+        <v>1</v>
+      </c>
+      <c r="K69" s="20">
+        <v>11000</v>
+      </c>
+      <c r="L69" s="20">
+        <v>3</v>
+      </c>
+      <c r="M69" s="20">
+        <v>27000</v>
+      </c>
+      <c r="N69" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="O69" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15">
+      <c r="B70" s="22">
+        <v>45417</v>
+      </c>
+      <c r="C70" s="22">
+        <v>45420</v>
+      </c>
+      <c r="D70" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F70" s="10">
+        <v>13000</v>
+      </c>
+      <c r="G70" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H70" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="I70" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="J70" s="10">
+        <v>3</v>
+      </c>
+      <c r="K70" s="20">
+        <v>8000</v>
+      </c>
+      <c r="L70" s="20">
+        <v>4</v>
+      </c>
+      <c r="M70" s="20">
+        <v>45000</v>
+      </c>
+      <c r="N70" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="O70" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15">
+      <c r="B71" s="22">
+        <v>45418</v>
+      </c>
+      <c r="C71" s="22">
+        <v>45421</v>
+      </c>
+      <c r="D71" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="F71" s="10">
+        <v>0</v>
+      </c>
+      <c r="G71" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="H71" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="I71" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J71" s="10">
+        <v>3</v>
+      </c>
+      <c r="K71" s="20">
+        <v>13000</v>
+      </c>
+      <c r="L71" s="20">
+        <v>2</v>
+      </c>
+      <c r="M71" s="20">
+        <v>26000</v>
+      </c>
+      <c r="N71" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="O71" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15">
+      <c r="B72" s="22">
+        <v>45419</v>
+      </c>
+      <c r="C72" s="22">
+        <v>45423</v>
+      </c>
+      <c r="D72" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F72" s="10">
+        <v>13000</v>
+      </c>
+      <c r="G72" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H72" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="I72" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="J72" s="10">
+        <v>4</v>
+      </c>
+      <c r="K72" s="20">
+        <v>15000</v>
+      </c>
+      <c r="L72" s="20">
+        <v>2</v>
+      </c>
+      <c r="M72" s="20">
+        <v>43000</v>
+      </c>
+      <c r="N72" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="O72" s="19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15">
+      <c r="B73" s="22">
+        <v>45420</v>
+      </c>
+      <c r="C73" s="22">
+        <v>45423</v>
+      </c>
+      <c r="D73" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F73" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G73" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H73" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="I73" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="J73" s="10">
+        <v>3</v>
+      </c>
+      <c r="K73" s="20">
+        <v>10000</v>
+      </c>
+      <c r="L73" s="20">
+        <v>3</v>
+      </c>
+      <c r="M73" s="20">
+        <v>43000</v>
+      </c>
+      <c r="N73" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="O73" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15">
+      <c r="B74" s="22">
+        <v>45421</v>
+      </c>
+      <c r="C74" s="22">
+        <v>45425</v>
+      </c>
+      <c r="D74" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="F74" s="10">
+        <v>0</v>
+      </c>
+      <c r="G74" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="H74" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="I74" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="J74" s="10">
+        <v>4</v>
+      </c>
+      <c r="K74" s="20">
+        <v>35000</v>
+      </c>
+      <c r="L74" s="20">
+        <v>2</v>
+      </c>
+      <c r="M74" s="20">
+        <v>70000</v>
+      </c>
+      <c r="N74" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="O74" s="19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15">
+      <c r="B75" s="22">
+        <v>45422</v>
+      </c>
+      <c r="C75" s="22">
+        <v>45423</v>
+      </c>
+      <c r="D75" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="F75" s="10">
+        <v>0</v>
+      </c>
+      <c r="G75" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="H75" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="I75" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J75" s="10">
+        <v>1</v>
+      </c>
+      <c r="K75" s="20">
+        <v>9000</v>
+      </c>
+      <c r="L75" s="20">
+        <v>3</v>
+      </c>
+      <c r="M75" s="20">
+        <v>27000</v>
+      </c>
+      <c r="N75" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="O75" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15">
+      <c r="B76" s="22">
+        <v>45423</v>
+      </c>
+      <c r="C76" s="22">
+        <v>45424</v>
+      </c>
+      <c r="D76" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="F76" s="10">
+        <v>10000</v>
+      </c>
+      <c r="G76" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H76" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="I76" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="J76" s="10">
+        <v>1</v>
+      </c>
+      <c r="K76" s="20">
+        <v>11000</v>
+      </c>
+      <c r="L76" s="20">
+        <v>4</v>
+      </c>
+      <c r="M76" s="20">
+        <v>54000</v>
+      </c>
+      <c r="N76" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="O76" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="N27:N28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:N1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A25" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
